--- a/tabellen/concept/5.1/objectentabellen/objecten-concept-5.1-GK-grondkeringen.xlsx
+++ b/tabellen/concept/5.1/objectentabellen/objecten-concept-5.1-GK-grondkeringen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\tabellen\concept\5.1\objectentabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{5D3E9B54-C6FB-432B-A85E-3E8D768B1F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B672594F-6E4D-4BB1-9C47-BE54262A6FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-1620" windowWidth="38640" windowHeight="21240" xr2:uid="{4819FFD4-E542-489B-A2CB-4BA4A71530BC}"/>
+    <workbookView xWindow="-38520" yWindow="-1620" windowWidth="38640" windowHeight="21240" xr2:uid="{BB45E55C-6FE8-4F19-B1D3-70C695699A62}"/>
   </bookViews>
   <sheets>
     <sheet name="objecten-concept-5.1-GK-grondke" sheetId="1" r:id="rId1"/>
@@ -22,30 +22,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2022" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2022" uniqueCount="198">
   <si>
     <t>objectURI</t>
   </si>
@@ -488,16 +466,52 @@
     <t>BESCHOEIING_BESCHOEIING3</t>
   </si>
   <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/9786d0ac-6605-4cb3-9d66-fc29862fbbac</t>
+  </si>
+  <si>
+    <t>GK-BESCHOEIING3-SO</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/ab877fd5-fb77-42bc-b780-81f4b7635485</t>
+  </si>
+  <si>
+    <t>V-GK-BESCHOEIING3-SO</t>
+  </si>
+  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/3e9f297d-97bd-4da8-be4c-d068bdfa7c59</t>
   </si>
   <si>
     <t>BESCHOEIING_BESCHOEIING1</t>
   </si>
   <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/c1a0eda7-3aba-4f41-960c-74aaa6c2fc28</t>
+  </si>
+  <si>
+    <t>GK-BESCHOEIING1-SO</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/af4d5f54-7491-4f2a-98f9-e84a2bd752fe</t>
+  </si>
+  <si>
+    <t>V-GK-BESCHOEIING1-SO</t>
+  </si>
+  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/40422b69-cab7-4db5-9da8-44b4dbe8818e</t>
   </si>
   <si>
     <t>BESCHOEIING_BESCHOEIING2</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/a2e9280c-9506-47b1-b217-452f8dd5940f</t>
+  </si>
+  <si>
+    <t>GK-BESCHOEIING2-SO</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/b3679c73-41f2-402f-a239-6356e3a96530</t>
+  </si>
+  <si>
+    <t>V-GK-BESCHOEIING2-SO</t>
   </si>
   <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/f84bbea2-5409-46c9-a048-47f1a911dc60</t>
@@ -1462,17 +1476,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D977A0F0-6414-4BB1-941C-47BEE8806281}">
-  <dimension ref="A1:GK94"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F948256F-3CEA-4173-9CF6-3BBDEDCFD2E0}">
+  <dimension ref="A1:BS47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="O39" sqref="O39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42:W42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="59.7265625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:71" x14ac:dyDescent="0.35">
@@ -1704,7 +1717,7 @@
         <v>339</v>
       </c>
       <c r="E2" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="H2" t="s">
         <v>76</v>
@@ -1883,7 +1896,7 @@
     </row>
     <row r="3" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B3" t="s">
         <v>72</v>
@@ -1892,7 +1905,7 @@
         <v>73</v>
       </c>
       <c r="E3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F3" t="s">
         <v>97</v>
@@ -1943,10 +1956,10 @@
         <v>253</v>
       </c>
       <c r="V3" t="s">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="W3" t="s">
-        <v>101</v>
+        <v>154</v>
       </c>
       <c r="X3" t="s">
         <v>85</v>
@@ -1985,10 +1998,10 @@
         <v>253</v>
       </c>
       <c r="AJ3" t="s">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="AK3" t="s">
-        <v>101</v>
+        <v>154</v>
       </c>
       <c r="AL3" t="s">
         <v>85</v>
@@ -2027,10 +2040,10 @@
         <v>253</v>
       </c>
       <c r="AX3" t="s">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="AY3" t="s">
-        <v>101</v>
+        <v>154</v>
       </c>
       <c r="AZ3" t="s">
         <v>85</v>
@@ -2069,15 +2082,15 @@
         <v>253</v>
       </c>
       <c r="BL3" t="s">
-        <v>102</v>
+        <v>155</v>
       </c>
       <c r="BM3" t="s">
-        <v>103</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="B4" t="s">
         <v>72</v>
@@ -2086,7 +2099,7 @@
         <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="H4" t="s">
         <v>76</v>
@@ -2131,10 +2144,10 @@
         <v>253</v>
       </c>
       <c r="V4" t="s">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="W4" t="s">
-        <v>101</v>
+        <v>154</v>
       </c>
       <c r="X4" t="s">
         <v>85</v>
@@ -2173,10 +2186,10 @@
         <v>253</v>
       </c>
       <c r="AJ4" t="s">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="AK4" t="s">
-        <v>101</v>
+        <v>154</v>
       </c>
       <c r="AL4" t="s">
         <v>85</v>
@@ -2215,10 +2228,10 @@
         <v>253</v>
       </c>
       <c r="AX4" t="s">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="AY4" t="s">
-        <v>101</v>
+        <v>154</v>
       </c>
       <c r="AZ4" t="s">
         <v>85</v>
@@ -2257,15 +2270,15 @@
         <v>253</v>
       </c>
       <c r="BL4" t="s">
-        <v>102</v>
+        <v>155</v>
       </c>
       <c r="BM4" t="s">
-        <v>103</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="B5" t="s">
         <v>72</v>
@@ -2274,7 +2287,7 @@
         <v>73</v>
       </c>
       <c r="E5" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="H5" t="s">
         <v>76</v>
@@ -2319,10 +2332,10 @@
         <v>253</v>
       </c>
       <c r="V5" t="s">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="W5" t="s">
-        <v>101</v>
+        <v>154</v>
       </c>
       <c r="X5" t="s">
         <v>85</v>
@@ -2361,10 +2374,10 @@
         <v>253</v>
       </c>
       <c r="AJ5" t="s">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="AK5" t="s">
-        <v>101</v>
+        <v>154</v>
       </c>
       <c r="AL5" t="s">
         <v>85</v>
@@ -2403,10 +2416,10 @@
         <v>253</v>
       </c>
       <c r="AX5" t="s">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="AY5" t="s">
-        <v>101</v>
+        <v>154</v>
       </c>
       <c r="AZ5" t="s">
         <v>85</v>
@@ -2445,15 +2458,15 @@
         <v>253</v>
       </c>
       <c r="BL5" t="s">
-        <v>102</v>
+        <v>155</v>
       </c>
       <c r="BM5" t="s">
-        <v>103</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="B6" t="s">
         <v>72</v>
@@ -2462,7 +2475,7 @@
         <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="H6" t="s">
         <v>76</v>
@@ -2507,10 +2520,10 @@
         <v>253</v>
       </c>
       <c r="V6" t="s">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="W6" t="s">
-        <v>101</v>
+        <v>154</v>
       </c>
       <c r="X6" t="s">
         <v>85</v>
@@ -2549,10 +2562,10 @@
         <v>253</v>
       </c>
       <c r="AJ6" t="s">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="AK6" t="s">
-        <v>101</v>
+        <v>154</v>
       </c>
       <c r="AL6" t="s">
         <v>85</v>
@@ -2591,10 +2604,10 @@
         <v>253</v>
       </c>
       <c r="AX6" t="s">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="AY6" t="s">
-        <v>101</v>
+        <v>154</v>
       </c>
       <c r="AZ6" t="s">
         <v>85</v>
@@ -2633,15 +2646,15 @@
         <v>253</v>
       </c>
       <c r="BL6" t="s">
-        <v>102</v>
+        <v>155</v>
       </c>
       <c r="BM6" t="s">
-        <v>103</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="B7" t="s">
         <v>72</v>
@@ -2650,7 +2663,7 @@
         <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="H7" t="s">
         <v>76</v>
@@ -2695,10 +2708,10 @@
         <v>253</v>
       </c>
       <c r="V7" t="s">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="W7" t="s">
-        <v>101</v>
+        <v>154</v>
       </c>
       <c r="X7" t="s">
         <v>85</v>
@@ -2737,10 +2750,10 @@
         <v>253</v>
       </c>
       <c r="AJ7" t="s">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="AK7" t="s">
-        <v>101</v>
+        <v>154</v>
       </c>
       <c r="AL7" t="s">
         <v>85</v>
@@ -2779,10 +2792,10 @@
         <v>253</v>
       </c>
       <c r="AX7" t="s">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="AY7" t="s">
-        <v>101</v>
+        <v>154</v>
       </c>
       <c r="AZ7" t="s">
         <v>85</v>
@@ -2821,15 +2834,15 @@
         <v>253</v>
       </c>
       <c r="BL7" t="s">
-        <v>102</v>
+        <v>155</v>
       </c>
       <c r="BM7" t="s">
-        <v>103</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="B8" t="s">
         <v>72</v>
@@ -2838,7 +2851,7 @@
         <v>73</v>
       </c>
       <c r="E8" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="H8" t="s">
         <v>76</v>
@@ -2883,10 +2896,10 @@
         <v>253</v>
       </c>
       <c r="V8" t="s">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="W8" t="s">
-        <v>101</v>
+        <v>154</v>
       </c>
       <c r="X8" t="s">
         <v>85</v>
@@ -2925,10 +2938,10 @@
         <v>253</v>
       </c>
       <c r="AJ8" t="s">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="AK8" t="s">
-        <v>101</v>
+        <v>154</v>
       </c>
       <c r="AL8" t="s">
         <v>85</v>
@@ -2967,10 +2980,10 @@
         <v>253</v>
       </c>
       <c r="AX8" t="s">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="AY8" t="s">
-        <v>101</v>
+        <v>154</v>
       </c>
       <c r="AZ8" t="s">
         <v>85</v>
@@ -3009,15 +3022,15 @@
         <v>253</v>
       </c>
       <c r="BL8" t="s">
-        <v>102</v>
+        <v>155</v>
       </c>
       <c r="BM8" t="s">
-        <v>103</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B9" t="s">
         <v>72</v>
@@ -3026,7 +3039,7 @@
         <v>73</v>
       </c>
       <c r="E9" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="F9" t="s">
         <v>97</v>
@@ -3077,10 +3090,10 @@
         <v>253</v>
       </c>
       <c r="V9" t="s">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="W9" t="s">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="X9" t="s">
         <v>85</v>
@@ -3119,10 +3132,10 @@
         <v>253</v>
       </c>
       <c r="AJ9" t="s">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="AK9" t="s">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="AL9" t="s">
         <v>85</v>
@@ -3161,10 +3174,10 @@
         <v>253</v>
       </c>
       <c r="AX9" t="s">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="AY9" t="s">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="AZ9" t="s">
         <v>85</v>
@@ -3203,15 +3216,15 @@
         <v>253</v>
       </c>
       <c r="BL9" t="s">
-        <v>102</v>
+        <v>161</v>
       </c>
       <c r="BM9" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B10" t="s">
         <v>72</v>
@@ -3220,7 +3233,7 @@
         <v>73</v>
       </c>
       <c r="E10" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="H10" t="s">
         <v>76</v>
@@ -3265,10 +3278,10 @@
         <v>253</v>
       </c>
       <c r="V10" t="s">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="W10" t="s">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="X10" t="s">
         <v>85</v>
@@ -3307,10 +3320,10 @@
         <v>253</v>
       </c>
       <c r="AJ10" t="s">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="AK10" t="s">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="AL10" t="s">
         <v>85</v>
@@ -3349,10 +3362,10 @@
         <v>253</v>
       </c>
       <c r="AX10" t="s">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="AY10" t="s">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="AZ10" t="s">
         <v>85</v>
@@ -3391,15 +3404,15 @@
         <v>253</v>
       </c>
       <c r="BL10" t="s">
-        <v>102</v>
+        <v>161</v>
       </c>
       <c r="BM10" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="B11" t="s">
         <v>72</v>
@@ -3408,7 +3421,7 @@
         <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="H11" t="s">
         <v>76</v>
@@ -3453,10 +3466,10 @@
         <v>253</v>
       </c>
       <c r="V11" t="s">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="W11" t="s">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="X11" t="s">
         <v>85</v>
@@ -3495,10 +3508,10 @@
         <v>253</v>
       </c>
       <c r="AJ11" t="s">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="AK11" t="s">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="AL11" t="s">
         <v>85</v>
@@ -3537,10 +3550,10 @@
         <v>253</v>
       </c>
       <c r="AX11" t="s">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="AY11" t="s">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="AZ11" t="s">
         <v>85</v>
@@ -3579,15 +3592,15 @@
         <v>253</v>
       </c>
       <c r="BL11" t="s">
-        <v>102</v>
+        <v>161</v>
       </c>
       <c r="BM11" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="B12" t="s">
         <v>72</v>
@@ -3596,7 +3609,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="H12" t="s">
         <v>76</v>
@@ -3641,10 +3654,10 @@
         <v>253</v>
       </c>
       <c r="V12" t="s">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="W12" t="s">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="X12" t="s">
         <v>85</v>
@@ -3683,10 +3696,10 @@
         <v>253</v>
       </c>
       <c r="AJ12" t="s">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="AK12" t="s">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="AL12" t="s">
         <v>85</v>
@@ -3725,10 +3738,10 @@
         <v>253</v>
       </c>
       <c r="AX12" t="s">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="AY12" t="s">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="AZ12" t="s">
         <v>85</v>
@@ -3767,15 +3780,15 @@
         <v>253</v>
       </c>
       <c r="BL12" t="s">
-        <v>102</v>
+        <v>161</v>
       </c>
       <c r="BM12" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="B13" t="s">
         <v>72</v>
@@ -3784,7 +3797,7 @@
         <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="H13" t="s">
         <v>76</v>
@@ -3829,10 +3842,10 @@
         <v>253</v>
       </c>
       <c r="V13" t="s">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="W13" t="s">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="X13" t="s">
         <v>85</v>
@@ -3871,10 +3884,10 @@
         <v>253</v>
       </c>
       <c r="AJ13" t="s">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="AK13" t="s">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="AL13" t="s">
         <v>85</v>
@@ -3913,10 +3926,10 @@
         <v>253</v>
       </c>
       <c r="AX13" t="s">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="AY13" t="s">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="AZ13" t="s">
         <v>85</v>
@@ -3955,15 +3968,15 @@
         <v>253</v>
       </c>
       <c r="BL13" t="s">
-        <v>102</v>
+        <v>161</v>
       </c>
       <c r="BM13" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="B14" t="s">
         <v>72</v>
@@ -3972,7 +3985,7 @@
         <v>73</v>
       </c>
       <c r="E14" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="H14" t="s">
         <v>76</v>
@@ -4017,10 +4030,10 @@
         <v>253</v>
       </c>
       <c r="V14" t="s">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="W14" t="s">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="X14" t="s">
         <v>85</v>
@@ -4059,10 +4072,10 @@
         <v>253</v>
       </c>
       <c r="AJ14" t="s">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="AK14" t="s">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="AL14" t="s">
         <v>85</v>
@@ -4101,10 +4114,10 @@
         <v>253</v>
       </c>
       <c r="AX14" t="s">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="AY14" t="s">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="AZ14" t="s">
         <v>85</v>
@@ -4143,10 +4156,10 @@
         <v>253</v>
       </c>
       <c r="BL14" t="s">
-        <v>102</v>
+        <v>161</v>
       </c>
       <c r="BM14" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:71" x14ac:dyDescent="0.35">
@@ -4211,10 +4224,10 @@
         <v>253</v>
       </c>
       <c r="V15" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="W15" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="X15" t="s">
         <v>85</v>
@@ -4253,10 +4266,10 @@
         <v>253</v>
       </c>
       <c r="AJ15" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="AK15" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="AL15" t="s">
         <v>85</v>
@@ -4295,10 +4308,10 @@
         <v>253</v>
       </c>
       <c r="AX15" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="AY15" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="AZ15" t="s">
         <v>85</v>
@@ -4337,15 +4350,15 @@
         <v>253</v>
       </c>
       <c r="BL15" t="s">
-        <v>102</v>
+        <v>149</v>
       </c>
       <c r="BM15" t="s">
-        <v>103</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="B16" t="s">
         <v>72</v>
@@ -4354,7 +4367,7 @@
         <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="H16" t="s">
         <v>76</v>
@@ -4399,10 +4412,10 @@
         <v>253</v>
       </c>
       <c r="V16" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="W16" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="X16" t="s">
         <v>85</v>
@@ -4441,10 +4454,10 @@
         <v>253</v>
       </c>
       <c r="AJ16" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="AK16" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="AL16" t="s">
         <v>85</v>
@@ -4483,10 +4496,10 @@
         <v>253</v>
       </c>
       <c r="AX16" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="AY16" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="AZ16" t="s">
         <v>85</v>
@@ -4525,15 +4538,15 @@
         <v>253</v>
       </c>
       <c r="BL16" t="s">
-        <v>102</v>
+        <v>149</v>
       </c>
       <c r="BM16" t="s">
-        <v>103</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="B17" t="s">
         <v>72</v>
@@ -4542,7 +4555,7 @@
         <v>73</v>
       </c>
       <c r="E17" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="H17" t="s">
         <v>76</v>
@@ -4587,10 +4600,10 @@
         <v>253</v>
       </c>
       <c r="V17" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="W17" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="X17" t="s">
         <v>85</v>
@@ -4629,10 +4642,10 @@
         <v>253</v>
       </c>
       <c r="AJ17" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="AK17" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="AL17" t="s">
         <v>85</v>
@@ -4671,10 +4684,10 @@
         <v>253</v>
       </c>
       <c r="AX17" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="AY17" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="AZ17" t="s">
         <v>85</v>
@@ -4713,15 +4726,15 @@
         <v>253</v>
       </c>
       <c r="BL17" t="s">
-        <v>102</v>
+        <v>149</v>
       </c>
       <c r="BM17" t="s">
-        <v>103</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="B18" t="s">
         <v>72</v>
@@ -4730,7 +4743,7 @@
         <v>73</v>
       </c>
       <c r="E18" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="H18" t="s">
         <v>76</v>
@@ -4775,10 +4788,10 @@
         <v>253</v>
       </c>
       <c r="V18" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="W18" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="X18" t="s">
         <v>85</v>
@@ -4817,10 +4830,10 @@
         <v>253</v>
       </c>
       <c r="AJ18" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="AK18" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="AL18" t="s">
         <v>85</v>
@@ -4859,10 +4872,10 @@
         <v>253</v>
       </c>
       <c r="AX18" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="AY18" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="AZ18" t="s">
         <v>85</v>
@@ -4901,15 +4914,15 @@
         <v>253</v>
       </c>
       <c r="BL18" t="s">
-        <v>102</v>
+        <v>149</v>
       </c>
       <c r="BM18" t="s">
-        <v>103</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="B19" t="s">
         <v>72</v>
@@ -4918,7 +4931,7 @@
         <v>73</v>
       </c>
       <c r="E19" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="H19" t="s">
         <v>76</v>
@@ -4963,10 +4976,10 @@
         <v>253</v>
       </c>
       <c r="V19" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="W19" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="X19" t="s">
         <v>85</v>
@@ -5005,10 +5018,10 @@
         <v>253</v>
       </c>
       <c r="AJ19" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="AK19" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="AL19" t="s">
         <v>85</v>
@@ -5047,10 +5060,10 @@
         <v>253</v>
       </c>
       <c r="AX19" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="AY19" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="AZ19" t="s">
         <v>85</v>
@@ -5089,15 +5102,15 @@
         <v>253</v>
       </c>
       <c r="BL19" t="s">
-        <v>102</v>
+        <v>149</v>
       </c>
       <c r="BM19" t="s">
-        <v>103</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="B20" t="s">
         <v>72</v>
@@ -5106,7 +5119,7 @@
         <v>73</v>
       </c>
       <c r="E20" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="H20" t="s">
         <v>76</v>
@@ -5151,10 +5164,10 @@
         <v>253</v>
       </c>
       <c r="V20" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="W20" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="X20" t="s">
         <v>85</v>
@@ -5193,10 +5206,10 @@
         <v>253</v>
       </c>
       <c r="AJ20" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="AK20" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="AL20" t="s">
         <v>85</v>
@@ -5235,10 +5248,10 @@
         <v>253</v>
       </c>
       <c r="AX20" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="AY20" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="AZ20" t="s">
         <v>85</v>
@@ -5277,10 +5290,10 @@
         <v>253</v>
       </c>
       <c r="BL20" t="s">
-        <v>102</v>
+        <v>149</v>
       </c>
       <c r="BM20" t="s">
-        <v>103</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:65" x14ac:dyDescent="0.35">
@@ -5876,7 +5889,7 @@
     </row>
     <row r="24" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="B24" t="s">
         <v>72</v>
@@ -5885,7 +5898,7 @@
         <v>73</v>
       </c>
       <c r="E24" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="F24" t="s">
         <v>97</v>
@@ -6279,7 +6292,7 @@
         <v>291</v>
       </c>
       <c r="E26" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="H26" t="s">
         <v>76</v>
@@ -9425,7 +9438,7 @@
         <v>315</v>
       </c>
       <c r="E42" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="H42" t="s">
         <v>76</v>
@@ -10542,1523 +10555,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:193" x14ac:dyDescent="0.35">
-      <c r="A49" t="str" cm="1">
-        <f t="array" ref="A49:A94">_xlfn.UNIQUE(A2:A47)</f>
-        <v>http://digitalbuildingdata.tech/nlcs/def/949265e3-b2b0-4dab-8428-6d4fd21b63da</v>
-      </c>
-      <c r="B49" t="str" cm="1">
-        <f t="array" ref="B49">_xlfn.UNIQUE(B2:B47)</f>
-        <v>http://digitalbuildingdata.tech/nlcs/def/24f9762b-7cd6-41ca-b087-f49b19970669</v>
-      </c>
-      <c r="C49" t="str" cm="1">
-        <f t="array" ref="C49">_xlfn.UNIQUE(C2:C47)</f>
-        <v>GK</v>
-      </c>
-      <c r="D49" cm="1">
-        <f t="array" ref="D49:D74">_xlfn.UNIQUE(D2:D47)</f>
-        <v>339</v>
-      </c>
-      <c r="E49" t="str" cm="1">
-        <f t="array" ref="E49:E94">_xlfn.UNIQUE(E2:E47)</f>
-        <v>BESCHOEIING</v>
-      </c>
-      <c r="F49" cm="1">
-        <f t="array" ref="F49:F57">_xlfn.UNIQUE(F2:F47)</f>
-        <v>0</v>
-      </c>
-      <c r="G49" cm="1">
-        <f t="array" ref="G49:G57">_xlfn.UNIQUE(G2:G47)</f>
-        <v>0</v>
-      </c>
-      <c r="H49" t="str" cm="1">
-        <f t="array" ref="H49">_xlfn.UNIQUE(H2:H47)</f>
-        <v>*</v>
-      </c>
-      <c r="I49" t="str" cm="1">
-        <f t="array" ref="I49">_xlfn.UNIQUE(I2:I47)</f>
-        <v>**</v>
-      </c>
-      <c r="J49" t="str" cm="1">
-        <f t="array" ref="J49:J50">_xlfn.UNIQUE(J2:J47)</f>
-        <v>http://digitalbuildingdata.tech/nlcs/def/bacc787a-3288-4f27-a233-6a58ce3d5c65</v>
-      </c>
-      <c r="K49" t="str" cm="1">
-        <f t="array" ref="K49:K50">_xlfn.UNIQUE(K2:K47)</f>
-        <v>0.18</v>
-      </c>
-      <c r="L49" t="str" cm="1">
-        <f t="array" ref="L49:L52">_xlfn.UNIQUE(L2:L47)</f>
-        <v>http://digitalbuildingdata.tech/nlcs/def/c1457843-d071-4dec-a735-2b5d29cf8717</v>
-      </c>
-      <c r="M49" cm="1">
-        <f t="array" ref="M49:M52">_xlfn.UNIQUE(M2:M47)</f>
-        <v>130</v>
-      </c>
-      <c r="N49" t="str" cm="1">
-        <f t="array" ref="N49:N52">_xlfn.UNIQUE(N2:N47)</f>
-        <v>http://digitalbuildingdata.tech/nlcs/def/11b59ca3-8808-4424-8c21-81bb104f57fd</v>
-      </c>
-      <c r="O49" cm="1">
-        <f t="array" ref="O49:O52">_xlfn.UNIQUE(O2:O47)</f>
-        <v>132</v>
-      </c>
-      <c r="P49" t="str" cm="1">
-        <f t="array" ref="P49:P52">_xlfn.UNIQUE(P2:P47)</f>
-        <v>http://digitalbuildingdata.tech/nlcs/def/c1457843-d071-4dec-a735-2b5d29cf8717</v>
-      </c>
-      <c r="Q49" cm="1">
-        <f t="array" ref="Q49:Q52">_xlfn.UNIQUE(Q2:Q47)</f>
-        <v>130</v>
-      </c>
-      <c r="R49" t="str" cm="1">
-        <f t="array" ref="R49:R52">_xlfn.UNIQUE(R2:R47)</f>
-        <v>http://digitalbuildingdata.tech/nlcs/def/c1457843-d071-4dec-a735-2b5d29cf8717</v>
-      </c>
-      <c r="S49" cm="1">
-        <f t="array" ref="S49:S52">_xlfn.UNIQUE(S2:S47)</f>
-        <v>130</v>
-      </c>
-      <c r="T49" t="str" cm="1">
-        <f t="array" ref="T49:T50">_xlfn.UNIQUE(T2:T47)</f>
-        <v>http://digitalbuildingdata.tech/nlcs/def/50f7e6bd-88c4-4cb6-a60b-64408590c6a3</v>
-      </c>
-      <c r="U49" cm="1">
-        <f t="array" ref="U49:U50">_xlfn.UNIQUE(U2:U47)</f>
-        <v>253</v>
-      </c>
-      <c r="V49" t="str" cm="1">
-        <f t="array" ref="V49:V51">_xlfn.UNIQUE(V2:V47)</f>
-        <v>http://digitalbuildingdata.tech/nlcs/def/5fbce959-d565-439b-ba2f-1657dab02ddf</v>
-      </c>
-      <c r="W49" t="str" cm="1">
-        <f t="array" ref="W49:W51">_xlfn.UNIQUE(W2:W47)</f>
-        <v>GK-BESCHOEIING-SO</v>
-      </c>
-      <c r="X49" t="str" cm="1">
-        <f t="array" ref="X49">_xlfn.UNIQUE(X2:X47)</f>
-        <v>http://digitalbuildingdata.tech/nlcs/def/fa7f8757-afa0-4bbc-b556-734091491e54</v>
-      </c>
-      <c r="Y49" t="str" cm="1">
-        <f t="array" ref="Y49">_xlfn.UNIQUE(Y2:Y47)</f>
-        <v>0.35</v>
-      </c>
-      <c r="Z49" t="str" cm="1">
-        <f t="array" ref="Z49:Z51">_xlfn.UNIQUE(Z2:Z47)</f>
-        <v>http://digitalbuildingdata.tech/nlcs/def/c1457843-d071-4dec-a735-2b5d29cf8717</v>
-      </c>
-      <c r="AA49" cm="1">
-        <f t="array" ref="AA49:AA51">_xlfn.UNIQUE(AA2:AA47)</f>
-        <v>130</v>
-      </c>
-      <c r="AB49" t="str" cm="1">
-        <f t="array" ref="AB49:AB51">_xlfn.UNIQUE(AB2:AB47)</f>
-        <v>http://digitalbuildingdata.tech/nlcs/def/11b59ca3-8808-4424-8c21-81bb104f57fd</v>
-      </c>
-      <c r="AC49" cm="1">
-        <f t="array" ref="AC49:AC51">_xlfn.UNIQUE(AC2:AC47)</f>
-        <v>132</v>
-      </c>
-      <c r="AD49" t="str" cm="1">
-        <f t="array" ref="AD49:AD51">_xlfn.UNIQUE(AD2:AD47)</f>
-        <v>http://digitalbuildingdata.tech/nlcs/def/c1457843-d071-4dec-a735-2b5d29cf8717</v>
-      </c>
-      <c r="AE49" cm="1">
-        <f t="array" ref="AE49:AE51">_xlfn.UNIQUE(AE2:AE47)</f>
-        <v>130</v>
-      </c>
-      <c r="AF49" t="str" cm="1">
-        <f t="array" ref="AF49:AF51">_xlfn.UNIQUE(AF2:AF47)</f>
-        <v>http://digitalbuildingdata.tech/nlcs/def/c1457843-d071-4dec-a735-2b5d29cf8717</v>
-      </c>
-      <c r="AG49" cm="1">
-        <f t="array" ref="AG49:AG51">_xlfn.UNIQUE(AG2:AG47)</f>
-        <v>130</v>
-      </c>
-      <c r="AH49" t="str" cm="1">
-        <f t="array" ref="AH49">_xlfn.UNIQUE(AH2:AH47)</f>
-        <v>http://digitalbuildingdata.tech/nlcs/def/50f7e6bd-88c4-4cb6-a60b-64408590c6a3</v>
-      </c>
-      <c r="AI49" cm="1">
-        <f t="array" ref="AI49">_xlfn.UNIQUE(AI2:AI47)</f>
-        <v>253</v>
-      </c>
-      <c r="AJ49" t="str" cm="1">
-        <f t="array" ref="AJ49:AJ50">_xlfn.UNIQUE(AJ2:AJ47)</f>
-        <v>http://digitalbuildingdata.tech/nlcs/def/5fbce959-d565-439b-ba2f-1657dab02ddf</v>
-      </c>
-      <c r="AK49" t="str" cm="1">
-        <f t="array" ref="AK49:AK50">_xlfn.UNIQUE(AK2:AK47)</f>
-        <v>GK-BESCHOEIING-SO</v>
-      </c>
-      <c r="AL49" t="str" cm="1">
-        <f t="array" ref="AL49">_xlfn.UNIQUE(AL2:AL47)</f>
-        <v>http://digitalbuildingdata.tech/nlcs/def/fa7f8757-afa0-4bbc-b556-734091491e54</v>
-      </c>
-      <c r="AM49" t="str" cm="1">
-        <f t="array" ref="AM49">_xlfn.UNIQUE(AM2:AM47)</f>
-        <v>0.35</v>
-      </c>
-      <c r="AN49" t="str" cm="1">
-        <f t="array" ref="AN49:AN51">_xlfn.UNIQUE(AN2:AN47)</f>
-        <v>http://digitalbuildingdata.tech/nlcs/def/c1457843-d071-4dec-a735-2b5d29cf8717</v>
-      </c>
-      <c r="AO49" cm="1">
-        <f t="array" ref="AO49:AO51">_xlfn.UNIQUE(AO2:AO47)</f>
-        <v>130</v>
-      </c>
-      <c r="AP49" t="str" cm="1">
-        <f t="array" ref="AP49:AP51">_xlfn.UNIQUE(AP2:AP47)</f>
-        <v>http://digitalbuildingdata.tech/nlcs/def/11b59ca3-8808-4424-8c21-81bb104f57fd</v>
-      </c>
-      <c r="AQ49" cm="1">
-        <f t="array" ref="AQ49:AQ51">_xlfn.UNIQUE(AQ2:AQ47)</f>
-        <v>132</v>
-      </c>
-      <c r="AR49" t="str" cm="1">
-        <f t="array" ref="AR49:AR51">_xlfn.UNIQUE(AR2:AR47)</f>
-        <v>http://digitalbuildingdata.tech/nlcs/def/c1457843-d071-4dec-a735-2b5d29cf8717</v>
-      </c>
-      <c r="AS49" cm="1">
-        <f t="array" ref="AS49:AS51">_xlfn.UNIQUE(AS2:AS47)</f>
-        <v>130</v>
-      </c>
-      <c r="AT49" t="str" cm="1">
-        <f t="array" ref="AT49:AT51">_xlfn.UNIQUE(AT2:AT47)</f>
-        <v>http://digitalbuildingdata.tech/nlcs/def/c1457843-d071-4dec-a735-2b5d29cf8717</v>
-      </c>
-      <c r="AU49" cm="1">
-        <f t="array" ref="AU49:AU51">_xlfn.UNIQUE(AU2:AU47)</f>
-        <v>130</v>
-      </c>
-      <c r="AV49" t="str" cm="1">
-        <f t="array" ref="AV49">_xlfn.UNIQUE(AV2:AV47)</f>
-        <v>http://digitalbuildingdata.tech/nlcs/def/50f7e6bd-88c4-4cb6-a60b-64408590c6a3</v>
-      </c>
-      <c r="AW49" cm="1">
-        <f t="array" ref="AW49">_xlfn.UNIQUE(AW2:AW47)</f>
-        <v>253</v>
-      </c>
-      <c r="AX49" t="str" cm="1">
-        <f t="array" ref="AX49:AX50">_xlfn.UNIQUE(AX2:AX47)</f>
-        <v>http://digitalbuildingdata.tech/nlcs/def/5fbce959-d565-439b-ba2f-1657dab02ddf</v>
-      </c>
-      <c r="AY49" t="str" cm="1">
-        <f t="array" ref="AY49:AY50">_xlfn.UNIQUE(AY2:AY47)</f>
-        <v>GK-BESCHOEIING-SO</v>
-      </c>
-      <c r="AZ49" t="str" cm="1">
-        <f t="array" ref="AZ49">_xlfn.UNIQUE(AZ2:AZ47)</f>
-        <v>http://digitalbuildingdata.tech/nlcs/def/fa7f8757-afa0-4bbc-b556-734091491e54</v>
-      </c>
-      <c r="BA49" t="str" cm="1">
-        <f t="array" ref="BA49">_xlfn.UNIQUE(BA2:BA47)</f>
-        <v>0.35</v>
-      </c>
-      <c r="BB49" t="str" cm="1">
-        <f t="array" ref="BB49:BB51">_xlfn.UNIQUE(BB2:BB47)</f>
-        <v>http://digitalbuildingdata.tech/nlcs/def/c1457843-d071-4dec-a735-2b5d29cf8717</v>
-      </c>
-      <c r="BC49" cm="1">
-        <f t="array" ref="BC49:BC51">_xlfn.UNIQUE(BC2:BC47)</f>
-        <v>130</v>
-      </c>
-      <c r="BD49" t="str" cm="1">
-        <f t="array" ref="BD49:BD51">_xlfn.UNIQUE(BD2:BD47)</f>
-        <v>http://digitalbuildingdata.tech/nlcs/def/11b59ca3-8808-4424-8c21-81bb104f57fd</v>
-      </c>
-      <c r="BE49" cm="1">
-        <f t="array" ref="BE49:BE51">_xlfn.UNIQUE(BE2:BE47)</f>
-        <v>132</v>
-      </c>
-      <c r="BF49" t="str" cm="1">
-        <f t="array" ref="BF49:BF51">_xlfn.UNIQUE(BF2:BF47)</f>
-        <v>http://digitalbuildingdata.tech/nlcs/def/c1457843-d071-4dec-a735-2b5d29cf8717</v>
-      </c>
-      <c r="BG49" cm="1">
-        <f t="array" ref="BG49:BG51">_xlfn.UNIQUE(BG2:BG47)</f>
-        <v>130</v>
-      </c>
-      <c r="BH49" t="str" cm="1">
-        <f t="array" ref="BH49:BH51">_xlfn.UNIQUE(BH2:BH47)</f>
-        <v>http://digitalbuildingdata.tech/nlcs/def/c1457843-d071-4dec-a735-2b5d29cf8717</v>
-      </c>
-      <c r="BI49" cm="1">
-        <f t="array" ref="BI49:BI51">_xlfn.UNIQUE(BI2:BI47)</f>
-        <v>130</v>
-      </c>
-      <c r="BJ49" t="str" cm="1">
-        <f t="array" ref="BJ49">_xlfn.UNIQUE(BJ2:BJ47)</f>
-        <v>http://digitalbuildingdata.tech/nlcs/def/50f7e6bd-88c4-4cb6-a60b-64408590c6a3</v>
-      </c>
-      <c r="BK49" cm="1">
-        <f t="array" ref="BK49">_xlfn.UNIQUE(BK2:BK47)</f>
-        <v>253</v>
-      </c>
-      <c r="BL49" t="str" cm="1">
-        <f t="array" ref="BL49:BL50">_xlfn.UNIQUE(BL2:BL47)</f>
-        <v>http://digitalbuildingdata.tech/nlcs/def/637bc5aa-f99f-480a-b805-058304718fb1</v>
-      </c>
-      <c r="BM49" t="str" cm="1">
-        <f t="array" ref="BM49:BM50">_xlfn.UNIQUE(BM2:BM47)</f>
-        <v>V-GK-BESCHOEIING-SO</v>
-      </c>
-      <c r="BN49" cm="1">
-        <f t="array" ref="BN49">_xlfn.UNIQUE(BN2:BN47)</f>
-        <v>0</v>
-      </c>
-      <c r="BO49" cm="1">
-        <f t="array" ref="BO49">_xlfn.UNIQUE(BO2:BO47)</f>
-        <v>0</v>
-      </c>
-      <c r="BP49" cm="1">
-        <f t="array" ref="BP49">_xlfn.UNIQUE(BP2:BP47)</f>
-        <v>0</v>
-      </c>
-      <c r="BQ49" cm="1">
-        <f t="array" ref="BQ49">_xlfn.UNIQUE(BQ2:BQ47)</f>
-        <v>0</v>
-      </c>
-      <c r="BR49" cm="1">
-        <f t="array" ref="BR49">_xlfn.UNIQUE(BR2:BR47)</f>
-        <v>0</v>
-      </c>
-      <c r="BS49" cm="1">
-        <f t="array" ref="BS49">_xlfn.UNIQUE(BS2:BS47)</f>
-        <v>0</v>
-      </c>
-      <c r="BT49" cm="1">
-        <f t="array" ref="BT49">_xlfn.UNIQUE(BT2:BT47)</f>
-        <v>0</v>
-      </c>
-      <c r="BU49" cm="1">
-        <f t="array" ref="BU49">_xlfn.UNIQUE(BU2:BU47)</f>
-        <v>0</v>
-      </c>
-      <c r="BV49" cm="1">
-        <f t="array" ref="BV49">_xlfn.UNIQUE(BV2:BV47)</f>
-        <v>0</v>
-      </c>
-      <c r="BW49" cm="1">
-        <f t="array" ref="BW49">_xlfn.UNIQUE(BW2:BW47)</f>
-        <v>0</v>
-      </c>
-      <c r="BX49" cm="1">
-        <f t="array" ref="BX49">_xlfn.UNIQUE(BX2:BX47)</f>
-        <v>0</v>
-      </c>
-      <c r="BY49" cm="1">
-        <f t="array" ref="BY49">_xlfn.UNIQUE(BY2:BY47)</f>
-        <v>0</v>
-      </c>
-      <c r="BZ49" cm="1">
-        <f t="array" ref="BZ49">_xlfn.UNIQUE(BZ2:BZ47)</f>
-        <v>0</v>
-      </c>
-      <c r="CA49" cm="1">
-        <f t="array" ref="CA49">_xlfn.UNIQUE(CA2:CA47)</f>
-        <v>0</v>
-      </c>
-      <c r="CB49" cm="1">
-        <f t="array" ref="CB49">_xlfn.UNIQUE(CB2:CB47)</f>
-        <v>0</v>
-      </c>
-      <c r="CC49" cm="1">
-        <f t="array" ref="CC49">_xlfn.UNIQUE(CC2:CC47)</f>
-        <v>0</v>
-      </c>
-      <c r="CD49" cm="1">
-        <f t="array" ref="CD49">_xlfn.UNIQUE(CD2:CD47)</f>
-        <v>0</v>
-      </c>
-      <c r="CE49" cm="1">
-        <f t="array" ref="CE49">_xlfn.UNIQUE(CE2:CE47)</f>
-        <v>0</v>
-      </c>
-      <c r="CF49" cm="1">
-        <f t="array" ref="CF49">_xlfn.UNIQUE(CF2:CF47)</f>
-        <v>0</v>
-      </c>
-      <c r="CG49" cm="1">
-        <f t="array" ref="CG49">_xlfn.UNIQUE(CG2:CG47)</f>
-        <v>0</v>
-      </c>
-      <c r="CH49" cm="1">
-        <f t="array" ref="CH49">_xlfn.UNIQUE(CH2:CH47)</f>
-        <v>0</v>
-      </c>
-      <c r="CI49" cm="1">
-        <f t="array" ref="CI49">_xlfn.UNIQUE(CI2:CI47)</f>
-        <v>0</v>
-      </c>
-      <c r="CJ49" cm="1">
-        <f t="array" ref="CJ49">_xlfn.UNIQUE(CJ2:CJ47)</f>
-        <v>0</v>
-      </c>
-      <c r="CK49" cm="1">
-        <f t="array" ref="CK49">_xlfn.UNIQUE(CK2:CK47)</f>
-        <v>0</v>
-      </c>
-      <c r="CL49" cm="1">
-        <f t="array" ref="CL49">_xlfn.UNIQUE(CL2:CL47)</f>
-        <v>0</v>
-      </c>
-      <c r="CM49" cm="1">
-        <f t="array" ref="CM49">_xlfn.UNIQUE(CM2:CM47)</f>
-        <v>0</v>
-      </c>
-      <c r="CN49" cm="1">
-        <f t="array" ref="CN49">_xlfn.UNIQUE(CN2:CN47)</f>
-        <v>0</v>
-      </c>
-      <c r="CO49" cm="1">
-        <f t="array" ref="CO49">_xlfn.UNIQUE(CO2:CO47)</f>
-        <v>0</v>
-      </c>
-      <c r="CP49" cm="1">
-        <f t="array" ref="CP49">_xlfn.UNIQUE(CP2:CP47)</f>
-        <v>0</v>
-      </c>
-      <c r="CQ49" cm="1">
-        <f t="array" ref="CQ49">_xlfn.UNIQUE(CQ2:CQ47)</f>
-        <v>0</v>
-      </c>
-      <c r="CR49" cm="1">
-        <f t="array" ref="CR49">_xlfn.UNIQUE(CR2:CR47)</f>
-        <v>0</v>
-      </c>
-      <c r="CS49" cm="1">
-        <f t="array" ref="CS49">_xlfn.UNIQUE(CS2:CS47)</f>
-        <v>0</v>
-      </c>
-      <c r="CT49" cm="1">
-        <f t="array" ref="CT49">_xlfn.UNIQUE(CT2:CT47)</f>
-        <v>0</v>
-      </c>
-      <c r="CU49" cm="1">
-        <f t="array" ref="CU49">_xlfn.UNIQUE(CU2:CU47)</f>
-        <v>0</v>
-      </c>
-      <c r="CV49" cm="1">
-        <f t="array" ref="CV49">_xlfn.UNIQUE(CV2:CV47)</f>
-        <v>0</v>
-      </c>
-      <c r="CW49" cm="1">
-        <f t="array" ref="CW49">_xlfn.UNIQUE(CW2:CW47)</f>
-        <v>0</v>
-      </c>
-      <c r="CX49" cm="1">
-        <f t="array" ref="CX49">_xlfn.UNIQUE(CX2:CX47)</f>
-        <v>0</v>
-      </c>
-      <c r="CY49" cm="1">
-        <f t="array" ref="CY49">_xlfn.UNIQUE(CY2:CY47)</f>
-        <v>0</v>
-      </c>
-      <c r="CZ49" cm="1">
-        <f t="array" ref="CZ49">_xlfn.UNIQUE(CZ2:CZ47)</f>
-        <v>0</v>
-      </c>
-      <c r="DA49" cm="1">
-        <f t="array" ref="DA49">_xlfn.UNIQUE(DA2:DA47)</f>
-        <v>0</v>
-      </c>
-      <c r="DB49" cm="1">
-        <f t="array" ref="DB49">_xlfn.UNIQUE(DB2:DB47)</f>
-        <v>0</v>
-      </c>
-      <c r="DC49" cm="1">
-        <f t="array" ref="DC49">_xlfn.UNIQUE(DC2:DC47)</f>
-        <v>0</v>
-      </c>
-      <c r="DD49" cm="1">
-        <f t="array" ref="DD49">_xlfn.UNIQUE(DD2:DD47)</f>
-        <v>0</v>
-      </c>
-      <c r="DE49" cm="1">
-        <f t="array" ref="DE49">_xlfn.UNIQUE(DE2:DE47)</f>
-        <v>0</v>
-      </c>
-      <c r="DF49" cm="1">
-        <f t="array" ref="DF49">_xlfn.UNIQUE(DF2:DF47)</f>
-        <v>0</v>
-      </c>
-      <c r="DG49" cm="1">
-        <f t="array" ref="DG49">_xlfn.UNIQUE(DG2:DG47)</f>
-        <v>0</v>
-      </c>
-      <c r="DH49" cm="1">
-        <f t="array" ref="DH49">_xlfn.UNIQUE(DH2:DH47)</f>
-        <v>0</v>
-      </c>
-      <c r="DI49" cm="1">
-        <f t="array" ref="DI49">_xlfn.UNIQUE(DI2:DI47)</f>
-        <v>0</v>
-      </c>
-      <c r="DJ49" cm="1">
-        <f t="array" ref="DJ49">_xlfn.UNIQUE(DJ2:DJ47)</f>
-        <v>0</v>
-      </c>
-      <c r="DK49" cm="1">
-        <f t="array" ref="DK49">_xlfn.UNIQUE(DK2:DK47)</f>
-        <v>0</v>
-      </c>
-      <c r="DL49" cm="1">
-        <f t="array" ref="DL49">_xlfn.UNIQUE(DL2:DL47)</f>
-        <v>0</v>
-      </c>
-      <c r="DM49" cm="1">
-        <f t="array" ref="DM49">_xlfn.UNIQUE(DM2:DM47)</f>
-        <v>0</v>
-      </c>
-      <c r="DN49" cm="1">
-        <f t="array" ref="DN49">_xlfn.UNIQUE(DN2:DN47)</f>
-        <v>0</v>
-      </c>
-      <c r="DO49" cm="1">
-        <f t="array" ref="DO49">_xlfn.UNIQUE(DO2:DO47)</f>
-        <v>0</v>
-      </c>
-      <c r="DP49" cm="1">
-        <f t="array" ref="DP49">_xlfn.UNIQUE(DP2:DP47)</f>
-        <v>0</v>
-      </c>
-      <c r="DQ49" cm="1">
-        <f t="array" ref="DQ49">_xlfn.UNIQUE(DQ2:DQ47)</f>
-        <v>0</v>
-      </c>
-      <c r="DR49" cm="1">
-        <f t="array" ref="DR49">_xlfn.UNIQUE(DR2:DR47)</f>
-        <v>0</v>
-      </c>
-      <c r="DS49" cm="1">
-        <f t="array" ref="DS49">_xlfn.UNIQUE(DS2:DS47)</f>
-        <v>0</v>
-      </c>
-      <c r="DT49" cm="1">
-        <f t="array" ref="DT49">_xlfn.UNIQUE(DT2:DT47)</f>
-        <v>0</v>
-      </c>
-      <c r="DU49" cm="1">
-        <f t="array" ref="DU49">_xlfn.UNIQUE(DU2:DU47)</f>
-        <v>0</v>
-      </c>
-      <c r="DV49" cm="1">
-        <f t="array" ref="DV49">_xlfn.UNIQUE(DV2:DV47)</f>
-        <v>0</v>
-      </c>
-      <c r="DW49" cm="1">
-        <f t="array" ref="DW49">_xlfn.UNIQUE(DW2:DW47)</f>
-        <v>0</v>
-      </c>
-      <c r="DX49" cm="1">
-        <f t="array" ref="DX49">_xlfn.UNIQUE(DX2:DX47)</f>
-        <v>0</v>
-      </c>
-      <c r="DY49" cm="1">
-        <f t="array" ref="DY49">_xlfn.UNIQUE(DY2:DY47)</f>
-        <v>0</v>
-      </c>
-      <c r="DZ49" cm="1">
-        <f t="array" ref="DZ49">_xlfn.UNIQUE(DZ2:DZ47)</f>
-        <v>0</v>
-      </c>
-      <c r="EA49" cm="1">
-        <f t="array" ref="EA49">_xlfn.UNIQUE(EA2:EA47)</f>
-        <v>0</v>
-      </c>
-      <c r="EB49" cm="1">
-        <f t="array" ref="EB49">_xlfn.UNIQUE(EB2:EB47)</f>
-        <v>0</v>
-      </c>
-      <c r="EC49" cm="1">
-        <f t="array" ref="EC49">_xlfn.UNIQUE(EC2:EC47)</f>
-        <v>0</v>
-      </c>
-      <c r="ED49" cm="1">
-        <f t="array" ref="ED49">_xlfn.UNIQUE(ED2:ED47)</f>
-        <v>0</v>
-      </c>
-      <c r="EE49" cm="1">
-        <f t="array" ref="EE49">_xlfn.UNIQUE(EE2:EE47)</f>
-        <v>0</v>
-      </c>
-      <c r="EF49" cm="1">
-        <f t="array" ref="EF49">_xlfn.UNIQUE(EF2:EF47)</f>
-        <v>0</v>
-      </c>
-      <c r="EG49" cm="1">
-        <f t="array" ref="EG49">_xlfn.UNIQUE(EG2:EG47)</f>
-        <v>0</v>
-      </c>
-      <c r="EH49" cm="1">
-        <f t="array" ref="EH49">_xlfn.UNIQUE(EH2:EH47)</f>
-        <v>0</v>
-      </c>
-      <c r="EI49" cm="1">
-        <f t="array" ref="EI49">_xlfn.UNIQUE(EI2:EI47)</f>
-        <v>0</v>
-      </c>
-      <c r="EJ49" cm="1">
-        <f t="array" ref="EJ49">_xlfn.UNIQUE(EJ2:EJ47)</f>
-        <v>0</v>
-      </c>
-      <c r="EK49" cm="1">
-        <f t="array" ref="EK49">_xlfn.UNIQUE(EK2:EK47)</f>
-        <v>0</v>
-      </c>
-      <c r="EL49" cm="1">
-        <f t="array" ref="EL49">_xlfn.UNIQUE(EL2:EL47)</f>
-        <v>0</v>
-      </c>
-      <c r="EM49" cm="1">
-        <f t="array" ref="EM49">_xlfn.UNIQUE(EM2:EM47)</f>
-        <v>0</v>
-      </c>
-      <c r="EN49" cm="1">
-        <f t="array" ref="EN49">_xlfn.UNIQUE(EN2:EN47)</f>
-        <v>0</v>
-      </c>
-      <c r="EO49" cm="1">
-        <f t="array" ref="EO49">_xlfn.UNIQUE(EO2:EO47)</f>
-        <v>0</v>
-      </c>
-      <c r="EP49" cm="1">
-        <f t="array" ref="EP49">_xlfn.UNIQUE(EP2:EP47)</f>
-        <v>0</v>
-      </c>
-      <c r="EQ49" cm="1">
-        <f t="array" ref="EQ49">_xlfn.UNIQUE(EQ2:EQ47)</f>
-        <v>0</v>
-      </c>
-      <c r="ER49" cm="1">
-        <f t="array" ref="ER49">_xlfn.UNIQUE(ER2:ER47)</f>
-        <v>0</v>
-      </c>
-      <c r="ES49" cm="1">
-        <f t="array" ref="ES49">_xlfn.UNIQUE(ES2:ES47)</f>
-        <v>0</v>
-      </c>
-      <c r="ET49" cm="1">
-        <f t="array" ref="ET49">_xlfn.UNIQUE(ET2:ET47)</f>
-        <v>0</v>
-      </c>
-      <c r="EU49" cm="1">
-        <f t="array" ref="EU49">_xlfn.UNIQUE(EU2:EU47)</f>
-        <v>0</v>
-      </c>
-      <c r="EV49" cm="1">
-        <f t="array" ref="EV49">_xlfn.UNIQUE(EV2:EV47)</f>
-        <v>0</v>
-      </c>
-      <c r="EW49" cm="1">
-        <f t="array" ref="EW49">_xlfn.UNIQUE(EW2:EW47)</f>
-        <v>0</v>
-      </c>
-      <c r="EX49" cm="1">
-        <f t="array" ref="EX49">_xlfn.UNIQUE(EX2:EX47)</f>
-        <v>0</v>
-      </c>
-      <c r="EY49" cm="1">
-        <f t="array" ref="EY49">_xlfn.UNIQUE(EY2:EY47)</f>
-        <v>0</v>
-      </c>
-      <c r="EZ49" cm="1">
-        <f t="array" ref="EZ49">_xlfn.UNIQUE(EZ2:EZ47)</f>
-        <v>0</v>
-      </c>
-      <c r="FA49" cm="1">
-        <f t="array" ref="FA49">_xlfn.UNIQUE(FA2:FA47)</f>
-        <v>0</v>
-      </c>
-      <c r="FB49" cm="1">
-        <f t="array" ref="FB49">_xlfn.UNIQUE(FB2:FB47)</f>
-        <v>0</v>
-      </c>
-      <c r="FC49" cm="1">
-        <f t="array" ref="FC49">_xlfn.UNIQUE(FC2:FC47)</f>
-        <v>0</v>
-      </c>
-      <c r="FD49" cm="1">
-        <f t="array" ref="FD49">_xlfn.UNIQUE(FD2:FD47)</f>
-        <v>0</v>
-      </c>
-      <c r="FE49" cm="1">
-        <f t="array" ref="FE49">_xlfn.UNIQUE(FE2:FE47)</f>
-        <v>0</v>
-      </c>
-      <c r="FF49" cm="1">
-        <f t="array" ref="FF49">_xlfn.UNIQUE(FF2:FF47)</f>
-        <v>0</v>
-      </c>
-      <c r="FG49" cm="1">
-        <f t="array" ref="FG49">_xlfn.UNIQUE(FG2:FG47)</f>
-        <v>0</v>
-      </c>
-      <c r="FH49" cm="1">
-        <f t="array" ref="FH49">_xlfn.UNIQUE(FH2:FH47)</f>
-        <v>0</v>
-      </c>
-      <c r="FI49" cm="1">
-        <f t="array" ref="FI49">_xlfn.UNIQUE(FI2:FI47)</f>
-        <v>0</v>
-      </c>
-      <c r="FJ49" cm="1">
-        <f t="array" ref="FJ49">_xlfn.UNIQUE(FJ2:FJ47)</f>
-        <v>0</v>
-      </c>
-      <c r="FK49" cm="1">
-        <f t="array" ref="FK49">_xlfn.UNIQUE(FK2:FK47)</f>
-        <v>0</v>
-      </c>
-      <c r="FL49" cm="1">
-        <f t="array" ref="FL49">_xlfn.UNIQUE(FL2:FL47)</f>
-        <v>0</v>
-      </c>
-      <c r="FM49" cm="1">
-        <f t="array" ref="FM49">_xlfn.UNIQUE(FM2:FM47)</f>
-        <v>0</v>
-      </c>
-      <c r="FN49" cm="1">
-        <f t="array" ref="FN49">_xlfn.UNIQUE(FN2:FN47)</f>
-        <v>0</v>
-      </c>
-      <c r="FO49" cm="1">
-        <f t="array" ref="FO49">_xlfn.UNIQUE(FO2:FO47)</f>
-        <v>0</v>
-      </c>
-      <c r="FP49" cm="1">
-        <f t="array" ref="FP49">_xlfn.UNIQUE(FP2:FP47)</f>
-        <v>0</v>
-      </c>
-      <c r="FQ49" cm="1">
-        <f t="array" ref="FQ49">_xlfn.UNIQUE(FQ2:FQ47)</f>
-        <v>0</v>
-      </c>
-      <c r="FR49" cm="1">
-        <f t="array" ref="FR49">_xlfn.UNIQUE(FR2:FR47)</f>
-        <v>0</v>
-      </c>
-      <c r="FS49" cm="1">
-        <f t="array" ref="FS49">_xlfn.UNIQUE(FS2:FS47)</f>
-        <v>0</v>
-      </c>
-      <c r="FT49" cm="1">
-        <f t="array" ref="FT49">_xlfn.UNIQUE(FT2:FT47)</f>
-        <v>0</v>
-      </c>
-      <c r="FU49" cm="1">
-        <f t="array" ref="FU49">_xlfn.UNIQUE(FU2:FU47)</f>
-        <v>0</v>
-      </c>
-      <c r="FV49" cm="1">
-        <f t="array" ref="FV49">_xlfn.UNIQUE(FV2:FV47)</f>
-        <v>0</v>
-      </c>
-      <c r="FW49" cm="1">
-        <f t="array" ref="FW49">_xlfn.UNIQUE(FW2:FW47)</f>
-        <v>0</v>
-      </c>
-      <c r="FX49" cm="1">
-        <f t="array" ref="FX49">_xlfn.UNIQUE(FX2:FX47)</f>
-        <v>0</v>
-      </c>
-      <c r="FY49" cm="1">
-        <f t="array" ref="FY49">_xlfn.UNIQUE(FY2:FY47)</f>
-        <v>0</v>
-      </c>
-      <c r="FZ49" cm="1">
-        <f t="array" ref="FZ49">_xlfn.UNIQUE(FZ2:FZ47)</f>
-        <v>0</v>
-      </c>
-      <c r="GA49" cm="1">
-        <f t="array" ref="GA49">_xlfn.UNIQUE(GA2:GA47)</f>
-        <v>0</v>
-      </c>
-      <c r="GB49" cm="1">
-        <f t="array" ref="GB49">_xlfn.UNIQUE(GB2:GB47)</f>
-        <v>0</v>
-      </c>
-      <c r="GC49" cm="1">
-        <f t="array" ref="GC49">_xlfn.UNIQUE(GC2:GC47)</f>
-        <v>0</v>
-      </c>
-      <c r="GD49" cm="1">
-        <f t="array" ref="GD49">_xlfn.UNIQUE(GD2:GD47)</f>
-        <v>0</v>
-      </c>
-      <c r="GE49" cm="1">
-        <f t="array" ref="GE49">_xlfn.UNIQUE(GE2:GE47)</f>
-        <v>0</v>
-      </c>
-      <c r="GF49" cm="1">
-        <f t="array" ref="GF49">_xlfn.UNIQUE(GF2:GF47)</f>
-        <v>0</v>
-      </c>
-      <c r="GG49" cm="1">
-        <f t="array" ref="GG49">_xlfn.UNIQUE(GG2:GG47)</f>
-        <v>0</v>
-      </c>
-      <c r="GH49" cm="1">
-        <f t="array" ref="GH49">_xlfn.UNIQUE(GH2:GH47)</f>
-        <v>0</v>
-      </c>
-      <c r="GI49" cm="1">
-        <f t="array" ref="GI49">_xlfn.UNIQUE(GI2:GI47)</f>
-        <v>0</v>
-      </c>
-      <c r="GJ49" cm="1">
-        <f t="array" ref="GJ49">_xlfn.UNIQUE(GJ2:GJ47)</f>
-        <v>0</v>
-      </c>
-      <c r="GK49" cm="1">
-        <f t="array" ref="GK49">_xlfn.UNIQUE(GK2:GK47)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:193" x14ac:dyDescent="0.35">
-      <c r="A50" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/3e9f297d-97bd-4da8-be4c-d068bdfa7c59</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50" t="str">
-        <v>BESCHOEIING_BESCHOEIING1</v>
-      </c>
-      <c r="F50" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/949265e3-b2b0-4dab-8428-6d4fd21b63da</v>
-      </c>
-      <c r="G50">
-        <v>339</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/9581bafe-5d14-4c6f-a22b-d573f8bfab25</v>
-      </c>
-      <c r="M50">
-        <v>150</v>
-      </c>
-      <c r="N50" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/3985dce9-6415-4eff-b557-3301a68a36c8</v>
-      </c>
-      <c r="O50">
-        <v>152</v>
-      </c>
-      <c r="P50" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/9581bafe-5d14-4c6f-a22b-d573f8bfab25</v>
-      </c>
-      <c r="Q50">
-        <v>150</v>
-      </c>
-      <c r="R50" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/9581bafe-5d14-4c6f-a22b-d573f8bfab25</v>
-      </c>
-      <c r="S50">
-        <v>150</v>
-      </c>
-      <c r="T50">
-        <v>0</v>
-      </c>
-      <c r="U50">
-        <v>0</v>
-      </c>
-      <c r="V50" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/21484fcb-4d9f-4e86-a9f5-fd6d855c7437</v>
-      </c>
-      <c r="W50" t="str">
-        <v>CONTINUOUS</v>
-      </c>
-      <c r="Z50" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/9581bafe-5d14-4c6f-a22b-d573f8bfab25</v>
-      </c>
-      <c r="AA50">
-        <v>150</v>
-      </c>
-      <c r="AB50" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/3985dce9-6415-4eff-b557-3301a68a36c8</v>
-      </c>
-      <c r="AC50">
-        <v>152</v>
-      </c>
-      <c r="AD50" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/9581bafe-5d14-4c6f-a22b-d573f8bfab25</v>
-      </c>
-      <c r="AE50">
-        <v>150</v>
-      </c>
-      <c r="AF50" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/9581bafe-5d14-4c6f-a22b-d573f8bfab25</v>
-      </c>
-      <c r="AG50">
-        <v>150</v>
-      </c>
-      <c r="AJ50" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/21484fcb-4d9f-4e86-a9f5-fd6d855c7437</v>
-      </c>
-      <c r="AK50" t="str">
-        <v>CONTINUOUS</v>
-      </c>
-      <c r="AN50" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/9581bafe-5d14-4c6f-a22b-d573f8bfab25</v>
-      </c>
-      <c r="AO50">
-        <v>150</v>
-      </c>
-      <c r="AP50" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/3985dce9-6415-4eff-b557-3301a68a36c8</v>
-      </c>
-      <c r="AQ50">
-        <v>152</v>
-      </c>
-      <c r="AR50" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/9581bafe-5d14-4c6f-a22b-d573f8bfab25</v>
-      </c>
-      <c r="AS50">
-        <v>150</v>
-      </c>
-      <c r="AT50" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/9581bafe-5d14-4c6f-a22b-d573f8bfab25</v>
-      </c>
-      <c r="AU50">
-        <v>150</v>
-      </c>
-      <c r="AX50" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/21484fcb-4d9f-4e86-a9f5-fd6d855c7437</v>
-      </c>
-      <c r="AY50" t="str">
-        <v>CONTINUOUS</v>
-      </c>
-      <c r="BB50" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/9581bafe-5d14-4c6f-a22b-d573f8bfab25</v>
-      </c>
-      <c r="BC50">
-        <v>150</v>
-      </c>
-      <c r="BD50" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/3985dce9-6415-4eff-b557-3301a68a36c8</v>
-      </c>
-      <c r="BE50">
-        <v>152</v>
-      </c>
-      <c r="BF50" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/9581bafe-5d14-4c6f-a22b-d573f8bfab25</v>
-      </c>
-      <c r="BG50">
-        <v>150</v>
-      </c>
-      <c r="BH50" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/9581bafe-5d14-4c6f-a22b-d573f8bfab25</v>
-      </c>
-      <c r="BI50">
-        <v>150</v>
-      </c>
-      <c r="BL50" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/270c7274-5fc6-4b2c-804f-0eeafcef2cd8</v>
-      </c>
-      <c r="BM50" t="str">
-        <v>V-CONTINUOUS-SO</v>
-      </c>
-    </row>
-    <row r="51" spans="1:193" x14ac:dyDescent="0.35">
-      <c r="A51" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/6aeb5496-114b-4f7b-ba57-8137b4745889</v>
-      </c>
-      <c r="D51">
-        <v>350</v>
-      </c>
-      <c r="E51" t="str">
-        <v>BESCHOEIING_BESCHOEIING1_COMBINATIE</v>
-      </c>
-      <c r="F51" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/52de9032-3af3-48f3-a7e6-fbcb7ba12125</v>
-      </c>
-      <c r="G51">
-        <v>345</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51">
-        <v>0</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>0</v>
-      </c>
-      <c r="R51">
-        <v>0</v>
-      </c>
-      <c r="S51">
-        <v>0</v>
-      </c>
-      <c r="V51">
-        <v>0</v>
-      </c>
-      <c r="W51">
-        <v>0</v>
-      </c>
-      <c r="Z51" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/bd94c067-fc89-49c7-aeab-1b8d19c51ec7</v>
-      </c>
-      <c r="AA51">
-        <v>30</v>
-      </c>
-      <c r="AB51" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/00e51897-f1ea-43b5-a5a9-822ea8f9b765</v>
-      </c>
-      <c r="AC51">
-        <v>32</v>
-      </c>
-      <c r="AD51" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/bd94c067-fc89-49c7-aeab-1b8d19c51ec7</v>
-      </c>
-      <c r="AE51">
-        <v>30</v>
-      </c>
-      <c r="AF51" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/bd94c067-fc89-49c7-aeab-1b8d19c51ec7</v>
-      </c>
-      <c r="AG51">
-        <v>30</v>
-      </c>
-      <c r="AN51" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/bd94c067-fc89-49c7-aeab-1b8d19c51ec7</v>
-      </c>
-      <c r="AO51">
-        <v>30</v>
-      </c>
-      <c r="AP51" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/00e51897-f1ea-43b5-a5a9-822ea8f9b765</v>
-      </c>
-      <c r="AQ51">
-        <v>32</v>
-      </c>
-      <c r="AR51" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/bd94c067-fc89-49c7-aeab-1b8d19c51ec7</v>
-      </c>
-      <c r="AS51">
-        <v>30</v>
-      </c>
-      <c r="AT51" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/bd94c067-fc89-49c7-aeab-1b8d19c51ec7</v>
-      </c>
-      <c r="AU51">
-        <v>30</v>
-      </c>
-      <c r="BB51" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/bd94c067-fc89-49c7-aeab-1b8d19c51ec7</v>
-      </c>
-      <c r="BC51">
-        <v>30</v>
-      </c>
-      <c r="BD51" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/00e51897-f1ea-43b5-a5a9-822ea8f9b765</v>
-      </c>
-      <c r="BE51">
-        <v>32</v>
-      </c>
-      <c r="BF51" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/bd94c067-fc89-49c7-aeab-1b8d19c51ec7</v>
-      </c>
-      <c r="BG51">
-        <v>30</v>
-      </c>
-      <c r="BH51" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/bd94c067-fc89-49c7-aeab-1b8d19c51ec7</v>
-      </c>
-      <c r="BI51">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="52" spans="1:193" x14ac:dyDescent="0.35">
-      <c r="A52" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/a4758021-5505-44c0-8f47-402d0f389aa7</v>
-      </c>
-      <c r="D52">
-        <v>345</v>
-      </c>
-      <c r="E52" t="str">
-        <v>BESCHOEIING_BESCHOEIING1_HOUT</v>
-      </c>
-      <c r="F52" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/3e58470e-f93a-4345-bde9-9984c38ee0be</v>
-      </c>
-      <c r="G52">
-        <v>291</v>
-      </c>
-      <c r="L52" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/bd94c067-fc89-49c7-aeab-1b8d19c51ec7</v>
-      </c>
-      <c r="M52">
-        <v>30</v>
-      </c>
-      <c r="N52" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/00e51897-f1ea-43b5-a5a9-822ea8f9b765</v>
-      </c>
-      <c r="O52">
-        <v>32</v>
-      </c>
-      <c r="P52" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/bd94c067-fc89-49c7-aeab-1b8d19c51ec7</v>
-      </c>
-      <c r="Q52">
-        <v>30</v>
-      </c>
-      <c r="R52" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/bd94c067-fc89-49c7-aeab-1b8d19c51ec7</v>
-      </c>
-      <c r="S52">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="1:193" x14ac:dyDescent="0.35">
-      <c r="A53" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/ec904c82-ddb3-4513-a32c-a6baeed54990</v>
-      </c>
-      <c r="D53">
-        <v>346</v>
-      </c>
-      <c r="E53" t="str">
-        <v>BESCHOEIING_BESCHOEIING1_HOUT_PLANKEN</v>
-      </c>
-      <c r="F53" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/52cd86dd-e23b-4447-892b-dce2bd5cf343</v>
-      </c>
-      <c r="G53">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="54" spans="1:193" x14ac:dyDescent="0.35">
-      <c r="A54" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/0f1804b5-92ff-4628-b558-b64319c40af3</v>
-      </c>
-      <c r="D54">
-        <v>291</v>
-      </c>
-      <c r="E54" t="str">
-        <v>BESCHOEIING_BESCHOEIING1_HOUT_SCHOTTEN</v>
-      </c>
-      <c r="F54" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/ea9c93f6-4798-4b7b-98f4-723c38cafa23</v>
-      </c>
-      <c r="G54">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="55" spans="1:193" x14ac:dyDescent="0.35">
-      <c r="A55" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/0178e203-06fd-4813-a42f-135302d241d8</v>
-      </c>
-      <c r="D55">
-        <v>292</v>
-      </c>
-      <c r="E55" t="str">
-        <v>BESCHOEIING_BESCHOEIING1_KUNSTSTOF</v>
-      </c>
-      <c r="F55" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/1d5d0a74-7a80-4dec-a5ab-e5f4119a1947</v>
-      </c>
-      <c r="G55">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="56" spans="1:193" x14ac:dyDescent="0.35">
-      <c r="A56" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/40422b69-cab7-4db5-9da8-44b4dbe8818e</v>
-      </c>
-      <c r="D56">
-        <v>293</v>
-      </c>
-      <c r="E56" t="str">
-        <v>BESCHOEIING_BESCHOEIING2</v>
-      </c>
-      <c r="F56" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/8fa25175-abbb-421b-a952-cc5398081925</v>
-      </c>
-      <c r="G56">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="57" spans="1:193" x14ac:dyDescent="0.35">
-      <c r="A57" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/474ec295-5015-4199-b32d-8d77fdc3340a</v>
-      </c>
-      <c r="D57">
-        <v>295</v>
-      </c>
-      <c r="E57" t="str">
-        <v>BESCHOEIING_BESCHOEIING2_COMBINATIE</v>
-      </c>
-      <c r="F57" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/dd3bcd48-b6a0-4e03-866f-5387f1ed24db</v>
-      </c>
-      <c r="G57">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="58" spans="1:193" x14ac:dyDescent="0.35">
-      <c r="A58" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/29fe3e76-8ccf-4984-b939-5b1fd2b1cf85</v>
-      </c>
-      <c r="D58">
-        <v>296</v>
-      </c>
-      <c r="E58" t="str">
-        <v>BESCHOEIING_BESCHOEIING2_HOUT</v>
-      </c>
-    </row>
-    <row r="59" spans="1:193" x14ac:dyDescent="0.35">
-      <c r="A59" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/51fb195c-36ff-4352-871e-762b132df658</v>
-      </c>
-      <c r="D59">
-        <v>294</v>
-      </c>
-      <c r="E59" t="str">
-        <v>BESCHOEIING_BESCHOEIING2_HOUT_PLANKEN</v>
-      </c>
-    </row>
-    <row r="60" spans="1:193" x14ac:dyDescent="0.35">
-      <c r="A60" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/3378cee8-9654-4f9d-941d-2dd434c58024</v>
-      </c>
-      <c r="D60">
-        <v>297</v>
-      </c>
-      <c r="E60" t="str">
-        <v>BESCHOEIING_BESCHOEIING2_HOUT_SCHOTTEN</v>
-      </c>
-    </row>
-    <row r="61" spans="1:193" x14ac:dyDescent="0.35">
-      <c r="A61" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/86f4f4ef-fb65-465e-a9de-874b5222e848</v>
-      </c>
-      <c r="D61">
-        <v>301</v>
-      </c>
-      <c r="E61" t="str">
-        <v>BESCHOEIING_BESCHOEIING2_KUNSTSTOF</v>
-      </c>
-    </row>
-    <row r="62" spans="1:193" x14ac:dyDescent="0.35">
-      <c r="A62" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/c7299722-58a7-43fd-9058-1729b1b8cf60</v>
-      </c>
-      <c r="D62">
-        <v>303</v>
-      </c>
-      <c r="E62" t="str">
-        <v>BESCHOEIING_BESCHOEIING3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:193" x14ac:dyDescent="0.35">
-      <c r="A63" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/8fa8f5d7-a244-436d-9cb0-5db12c173f50</v>
-      </c>
-      <c r="D63">
-        <v>302</v>
-      </c>
-      <c r="E63" t="str">
-        <v>BESCHOEIING_BESCHOEIING3_COMBINATIE</v>
-      </c>
-    </row>
-    <row r="64" spans="1:193" x14ac:dyDescent="0.35">
-      <c r="A64" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/828b318c-28e7-4c7f-bc72-98125f16bb9c</v>
-      </c>
-      <c r="D64">
-        <v>304</v>
-      </c>
-      <c r="E64" t="str">
-        <v>BESCHOEIING_BESCHOEIING3_HOUT</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/b88fcd8c-e40f-4610-9f74-d9c5bf2915f1</v>
-      </c>
-      <c r="D65">
-        <v>305</v>
-      </c>
-      <c r="E65" t="str">
-        <v>BESCHOEIING_BESCHOEIING3_HOUT_PLANKEN</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/639fcfa0-6ed2-4809-8372-f0b85045534e</v>
-      </c>
-      <c r="D66">
-        <v>306</v>
-      </c>
-      <c r="E66" t="str">
-        <v>BESCHOEIING_BESCHOEIING3_HOUT_SCHOTTEN</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/89d470dc-7279-4297-9ff2-f7811ba49a69</v>
-      </c>
-      <c r="D67">
-        <v>298</v>
-      </c>
-      <c r="E67" t="str">
-        <v>BESCHOEIING_BESCHOEIING3_KUNSTSTOF</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/b63d9d71-b22a-4592-9733-c114aedc9b78</v>
-      </c>
-      <c r="D68">
-        <v>299</v>
-      </c>
-      <c r="E68" t="str">
-        <v>BESCHOEIING_COMBINATIE</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/52de9032-3af3-48f3-a7e6-fbcb7ba12125</v>
-      </c>
-      <c r="D69">
-        <v>300</v>
-      </c>
-      <c r="E69" t="str">
-        <v>BESCHOEIING_HOUT</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/5b88f50f-6164-4e0d-9936-68cd3e6c7b29</v>
-      </c>
-      <c r="D70">
-        <v>315</v>
-      </c>
-      <c r="E70" t="str">
-        <v>BESCHOEIING_HOUT_SCHOTTEN</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/f84bbea2-5409-46c9-a048-47f1a911dc60</v>
-      </c>
-      <c r="D71">
-        <v>325</v>
-      </c>
-      <c r="E71" t="str">
-        <v>BESCHOEIING_KUNSTSTOF</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/b2cc51d3-4dcf-438b-ad38-c791e2da4997</v>
-      </c>
-      <c r="D72">
-        <v>324</v>
-      </c>
-      <c r="E72" t="str">
-        <v>BESCHOEING_HOUT_PLANKEN</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/3e58470e-f93a-4345-bde9-9984c38ee0be</v>
-      </c>
-      <c r="D73">
-        <v>323</v>
-      </c>
-      <c r="E73" t="str">
-        <v>KADEMUUR</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/52cd86dd-e23b-4447-892b-dce2bd5cf343</v>
-      </c>
-      <c r="D74">
-        <v>326</v>
-      </c>
-      <c r="E74" t="str">
-        <v>KADEMUUR_GEWICHTSCONSTRUCTIE</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/1a087924-1de2-44bc-ae67-05b4eaf0327b</v>
-      </c>
-      <c r="E75" t="str">
-        <v>KADEMUUR_GEWICHTSCONSTRUCTIE_BLOKKENMUUR</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/03aee9d6-6b27-4fc0-b58c-79e1dc8062a4</v>
-      </c>
-      <c r="E76" t="str">
-        <v>KADEMUUR_GEWICHTSCONSTRUCTIE_CAISSONWAND</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/cad7100d-fa4c-409d-a0b1-d8575dcf34ed</v>
-      </c>
-      <c r="E77" t="str">
-        <v>KADEMUUR_GEWICHTSCONSTRUCTIE_CELLENWAND</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/3afe5acc-0cd2-438a-9633-2a4a0281d98f</v>
-      </c>
-      <c r="E78" t="str">
-        <v>KADEMUUR_GEWICHTSCONSTRUCTIE_L MUUR</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/7093e3a9-889e-4e80-aba4-53689992e602</v>
-      </c>
-      <c r="E79" t="str">
-        <v>KADEMUUR_GEWICHTSCONSTRUCTIE_TERRE ARMEE</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/ea9c93f6-4798-4b7b-98f4-723c38cafa23</v>
-      </c>
-      <c r="E80" t="str">
-        <v>KADEMUUR_ONTLASTVLOER</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A81" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/d576faea-bb94-401a-a68c-c22e9741dfd8</v>
-      </c>
-      <c r="E81" t="str">
-        <v>KADEMUUR_ONTLASTVLOER_DIEPGELEGEN</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A82" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/53130b93-b016-4aed-9c16-5e01d70ed638</v>
-      </c>
-      <c r="E82" t="str">
-        <v>KADEMUUR_ONTLASTVLOER_HOOGGELEGEN</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A83" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/1d5d0a74-7a80-4dec-a5ab-e5f4119a1947</v>
-      </c>
-      <c r="E83" t="str">
-        <v>KADEMUUR_OVERBOUWD TALUD</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A84" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/2f72694d-15be-41e9-8dbb-c7c8f325b4ab</v>
-      </c>
-      <c r="E84" t="str">
-        <v>KADEMUUR_OVERBOUWD TALUD_DEK OVER GLOOIINGSCONSTRUCTIE</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A85" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/971ef62d-a3a1-42ec-815f-cba6655db63e</v>
-      </c>
-      <c r="E85" t="str">
-        <v>KADEMUUR_OVERBOUWD TALUD_MET KERENDE WAND</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A86" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/8fa25175-abbb-421b-a952-cc5398081925</v>
-      </c>
-      <c r="E86" t="str">
-        <v>KADEMUUR_WANDCONSTRUCTIE</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A87" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/d2a24508-f28b-42b7-813e-ea383e3e8715</v>
-      </c>
-      <c r="E87" t="str">
-        <v>KADEMUUR_WANDCONSTRUCTIE_ONVERANKERD</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A88" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/c1713626-f4cc-4b86-ae34-13211b9d6fc5</v>
-      </c>
-      <c r="E88" t="str">
-        <v>KADEMUUR_WANDCONSTRUCTIE_VERANKERD</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A89" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/dd3bcd48-b6a0-4e03-866f-5387f1ed24db</v>
-      </c>
-      <c r="E89" t="str">
-        <v>KEERWAND</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A90" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/7720f401-58a4-42fe-a357-dfa552549403</v>
-      </c>
-      <c r="E90" t="str">
-        <v>KEERWAND_LEGIOBLOKKEN</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A91" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/140bdd17-3a23-4f3e-b8d3-35b9e99f2280</v>
-      </c>
-      <c r="E91" t="str">
-        <v>KEERWAND_LWAND</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A92" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/ec6a8bd4-d051-4bda-8c88-253453c84fdd</v>
-      </c>
-      <c r="E92" t="str">
-        <v>KEERWAND_SCHANSKORF</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A93" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/18c5d10e-1f36-45de-a9c4-2115e1d075a2</v>
-      </c>
-      <c r="E93" t="str">
-        <v>KEERWAND_TERRE ARMEE</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A94" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/389ad20c-0ecc-4dcc-8220-7fc070695417</v>
-      </c>
-      <c r="E94" t="str">
-        <v>KEERWAND_TWAND</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:BS47" xr:uid="{D977A0F0-6414-4BB1-941C-47BEE8806281}">
+  <autoFilter ref="A1:BS47" xr:uid="{F948256F-3CEA-4173-9CF6-3BBDEDCFD2E0}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BS47">
       <sortCondition ref="E1:E47"/>
     </sortState>
